--- a/excel/appweb_trpr02_grille.xlsx
+++ b/excel/appweb_trpr02_grille.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\appweb\appweb-trpr02_mariagermain_theohautois\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36729F3-53FF-4DD1-9AA5-1695A1FF0820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2471E3C-49A7-4B7F-A11E-7FF6556E78E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="109">
   <si>
     <t>Éléments observables</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>Faire 3 revues de code pour chaque semaine</t>
+  </si>
+  <si>
+    <t>Avec Théo Hautois</t>
   </si>
 </sst>
 </file>
@@ -1820,8 +1823,8 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1886,10 +1889,12 @@
       <c r="B4" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="34" t="e">
+      <c r="C4" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="34">
         <f>VLOOKUP(C4,echelles!$A$20:$B$25,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>10</v>
       </c>
       <c r="E4" s="23"/>
     </row>
@@ -2047,7 +2052,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>14</v>
@@ -2072,7 +2077,9 @@
       <c r="D16" s="36">
         <v>0.9</v>
       </c>
-      <c r="E16" s="62"/>
+      <c r="E16" s="62" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
@@ -2099,9 +2106,9 @@
       <c r="C18" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="42" t="e">
+      <c r="D18" s="42">
         <f>SUM(D2:D14)</f>
-        <v>#N/A</v>
+        <v>100</v>
       </c>
       <c r="E18" s="63"/>
     </row>
@@ -2141,7 +2148,7 @@
       </c>
       <c r="B21" s="12">
         <f ca="1">NOW()</f>
-        <v>45410.467374768516</v>
+        <v>45410.468533796295</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>11</v>
@@ -2155,20 +2162,20 @@
       <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="13" t="e">
+      <c r="B22" s="13">
         <f>(pts_grandtotal/nb_points)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="4" t="e">
+      <c r="D22" s="4">
         <f>pts_soustotal-pts_retard-pts_francais-pts_respect</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E22" s="28" t="e">
+        <v>100</v>
+      </c>
+      <c r="E22" s="28" t="str">
         <f>"Note finale: "&amp;pts_grandtotal/nb_points*100&amp;"%"</f>
-        <v>#N/A</v>
+        <v>Note finale: 100%</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">

--- a/excel/appweb_trpr02_grille.xlsx
+++ b/excel/appweb_trpr02_grille.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\appweb\appweb-trpr02_mariagermain_theohautois\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2471E3C-49A7-4B7F-A11E-7FF6556E78E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378A541D-87AD-45B6-B3A9-5DA373EE64E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="110">
   <si>
     <t>Éléments observables</t>
   </si>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t>Avec Théo Hautois</t>
+  </si>
+  <si>
+    <t>https://mariagermain.github.io/appweb-trpr02/</t>
   </si>
 </sst>
 </file>
@@ -393,7 +396,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -464,6 +467,14 @@
       <b/>
       <i/>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -826,12 +837,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1023,8 +1035,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Satisfaisant" xfId="2" builtinId="26"/>
     <cellStyle name="Titre 1" xfId="1" builtinId="16"/>
@@ -1823,8 +1839,8 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16:E21"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1956,7 +1972,9 @@
         <f>VLOOKUP(C8,echelles!$A$12:$B$17,2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="E8" s="49"/>
+      <c r="E8" s="65" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="40" t="s">
@@ -2148,7 +2166,7 @@
       </c>
       <c r="B21" s="12">
         <f ca="1">NOW()</f>
-        <v>45410.468533796295</v>
+        <v>45410.472410185183</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>11</v>
@@ -2224,13 +2242,16 @@
       <formula1>"Sommative,Formative,Autoévaluation"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1" xr:uid="{6E666311-BABE-42A4-9A1E-C25F7D54587A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;CGrille d'évaluation</oddHeader>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
